--- a/项目开发计划/预算.xlsx
+++ b/项目开发计划/预算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12380"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>项目名称</t>
   </si>
@@ -83,12 +83,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>《</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>UML用户指南》</t>
@@ -107,10 +114,22 @@
     <t>月</t>
   </si>
   <si>
+    <t>团队建设</t>
+  </si>
+  <si>
+    <t>团建活动、员工福利</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>其他费用（如软件购置费、资料购买费）</t>
+  </si>
+  <si>
     <t>总计</t>
   </si>
   <si>
-    <t>104125.1元</t>
+    <t>106125.1元</t>
   </si>
 </sst>
 </file>
@@ -118,12 +137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +159,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -153,8 +179,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,8 +210,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +249,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -191,28 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,66 +302,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -292,25 +317,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,162 +491,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -566,6 +591,39 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -585,6 +643,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,35 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,6 +696,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -662,168 +735,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -852,6 +910,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -861,81 +922,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1202,20 +1260,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="23.0625" customWidth="1"/>
-    <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
-    <col min="6" max="6" width="16.6696428571429" customWidth="1"/>
-    <col min="7" max="7" width="24.0982142857143" customWidth="1"/>
+    <col min="2" max="2" width="23.0666666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.96666666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="24.1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
@@ -1241,7 +1299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="18.35" spans="1:7">
+    <row r="2" ht="16.35" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="18.35" spans="1:7">
+    <row r="3" ht="16.35" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>11</v>
@@ -1275,7 +1333,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="18.35" spans="1:7">
+    <row r="4" ht="16.35" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -1286,7 +1344,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="32.75" spans="1:7">
+    <row r="5" ht="16.35" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1297,7 +1355,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="94.75" spans="1:7">
+    <row r="6" ht="43.95" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="18.35" spans="1:7">
+    <row r="7" ht="16.35" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1339,20 +1397,20 @@
       <c r="F7" s="2">
         <v>390</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="18.35" spans="1:7">
+    <row r="8" ht="16.35" spans="1:7">
       <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="8"/>
     </row>
-    <row r="9" ht="18.35" spans="1:7">
+    <row r="9" ht="16.35" spans="1:7">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>22</v>
@@ -1369,20 +1427,20 @@
       <c r="F9" s="2">
         <v>395</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" ht="16.35" spans="1:7">
       <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="8"/>
     </row>
-    <row r="11" ht="63.75" spans="1:7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+    <row r="11" ht="29.55" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2">
@@ -1397,47 +1455,77 @@
       <c r="F11" s="2">
         <v>172.5</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
+    <row r="12" ht="16.35" spans="1:7">
+      <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="3">
         <v>30</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="3">
         <v>120</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="18.35" spans="1:7">
-      <c r="A13" s="1" t="s">
+    <row r="13" ht="16.35" spans="1:7">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="18"/>
+    </row>
+    <row r="14" ht="29.55" spans="1:7">
+      <c r="A14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B8"/>
